--- a/code/accidents_at_work/age_groups_08.xlsx
+++ b/code/accidents_at_work/age_groups_08.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>number_of_working_accidents</t>
   </si>
@@ -22,10 +22,16 @@
     <t>ages</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>0.02</t>
   </si>
   <si>
     <t>15 and younger</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>0.70</t>
@@ -1353,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1362,7 +1368,8 @@
     <col min="1" max="1" width="54.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1719" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -1375,16 +1382,22 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="13.2" customHeight="1">
@@ -1392,9 +1405,12 @@
         <v>64</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1403,10 +1419,13 @@
         <v>782</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
@@ -1414,10 +1433,13 @@
         <v>1461</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="13.2" customHeight="1">
@@ -1425,10 +1447,13 @@
         <v>1473</v>
       </c>
       <c r="B6" t="s" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="13.2" customHeight="1">
@@ -1436,10 +1461,13 @@
         <v>1384</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="13.2" customHeight="1">
@@ -1447,10 +1475,13 @@
         <v>1262</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.2" customHeight="1">
@@ -1458,10 +1489,13 @@
         <v>1026</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1">
@@ -1469,10 +1503,13 @@
         <v>835</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="75" customHeight="1">
@@ -1480,10 +1517,13 @@
         <v>584</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1">
@@ -1491,10 +1531,13 @@
         <v>140</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="13" ht="13.2" customHeight="1">
@@ -1502,10 +1545,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="13.2" customHeight="1">
@@ -1513,10 +1559,13 @@
         <v>74</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
